--- a/xlsx/FR/policies_negative_effect_FR_inc.xlsx
+++ b/xlsx/FR/policies_negative_effect_FR_inc.xlsx
@@ -12,30 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">(Top 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ban on combustion-engine cars&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Top 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A carbon tax with cash transfers&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (Top 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A green infrastructure program&lt;br&gt;(Bottom 50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither agree or disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly agree</t>
   </si>
 </sst>
 </file>
@@ -380,61 +392,129 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0592843171298971</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0823212710739597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0517933945065431</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0518323014473372</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0520921110318477</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0732689267263536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.167628075218995</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.131218520463052</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.211381311774812</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.149867458378655</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.252239167939642</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.198058627070995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.359755189090956</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.405668218486746</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.421380843898907</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.504402262272593</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.41396082582919</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.45443875020526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.284853981993158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.232121713278496</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.213300479174134</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.196569801003878</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.171695689809705</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.195403133981723</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.128478436566995</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.148670276697746</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.102143970645603</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0973281768975355</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.110012205389615</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.078830562015669</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/policies_negative_effect_FR_inc.xlsx
+++ b/xlsx/FR/policies_negative_effect_FR_inc.xlsx
@@ -407,22 +407,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0592843171298971</v>
+        <v>0.0577498592277757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0823212710739597</v>
+        <v>0.08254101443533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0517933945065431</v>
+        <v>0.0773865735220848</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0518323014473372</v>
+        <v>0.0514219223107553</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0520921110318477</v>
+        <v>0.0502614618630845</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0732689267263536</v>
+        <v>0.0831111812298285</v>
       </c>
     </row>
     <row r="3">
@@ -430,22 +430,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.167628075218995</v>
+        <v>0.188690065076322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131218520463052</v>
+        <v>0.150372698446377</v>
       </c>
       <c r="D3" t="n">
-        <v>0.211381311774812</v>
+        <v>0.217785216469405</v>
       </c>
       <c r="E3" t="n">
-        <v>0.149867458378655</v>
+        <v>0.147510047453111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.252239167939642</v>
+        <v>0.304426141838898</v>
       </c>
       <c r="G3" t="n">
-        <v>0.198058627070995</v>
+        <v>0.205002733840409</v>
       </c>
     </row>
     <row r="4">
@@ -453,22 +453,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.359755189090956</v>
+        <v>0.368034211898828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.405668218486746</v>
+        <v>0.379752784641981</v>
       </c>
       <c r="D4" t="n">
-        <v>0.421380843898907</v>
+        <v>0.369001765800116</v>
       </c>
       <c r="E4" t="n">
-        <v>0.504402262272593</v>
+        <v>0.501911657895276</v>
       </c>
       <c r="F4" t="n">
-        <v>0.41396082582919</v>
+        <v>0.39635438489823</v>
       </c>
       <c r="G4" t="n">
-        <v>0.45443875020526</v>
+        <v>0.44853316328321</v>
       </c>
     </row>
     <row r="5">
@@ -476,22 +476,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.284853981993158</v>
+        <v>0.258225393265001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.232121713278496</v>
+        <v>0.237753833955531</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213300479174134</v>
+        <v>0.230269460019955</v>
       </c>
       <c r="E5" t="n">
-        <v>0.196569801003878</v>
+        <v>0.205833505726168</v>
       </c>
       <c r="F5" t="n">
-        <v>0.171695689809705</v>
+        <v>0.14801957534352</v>
       </c>
       <c r="G5" t="n">
-        <v>0.195403133981723</v>
+        <v>0.189045772741544</v>
       </c>
     </row>
     <row r="6">
@@ -499,22 +499,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.128478436566995</v>
+        <v>0.127300470532073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.148670276697746</v>
+        <v>0.149579668520781</v>
       </c>
       <c r="D6" t="n">
-        <v>0.102143970645603</v>
+        <v>0.105556984188439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0973281768975355</v>
+        <v>0.0933228666146884</v>
       </c>
       <c r="F6" t="n">
-        <v>0.110012205389615</v>
+        <v>0.100938436056268</v>
       </c>
       <c r="G6" t="n">
-        <v>0.078830562015669</v>
+        <v>0.0743071489050087</v>
       </c>
     </row>
   </sheetData>
